--- a/06-03-2023/data/output/xlsx/sample_0/category__14.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,21 +52,51 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -91,52 +121,208 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_unknowns__1</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_unknowns__1</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
@@ -166,12 +352,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -202,142 +382,37 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
@@ -347,81 +422,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -577,30 +577,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.05413687436159346</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05932203389830509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06796116504854369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02531645569620253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,30 +757,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.0267379679144385</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02112676056338028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02150537634408602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0136986301369863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,30 +913,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.05315947843530592</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05348133198789102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04823747680890538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05232558139534884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04901960784313725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04347826086956522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03703703703703703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,10 +1099,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$8</c:f>
+              <c:f>Decimals!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1021,16 +1111,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$8</c:f>
+              <c:f>Decimals!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.05627009646302251</c:v>
                 </c:pt>
@@ -1038,6 +1152,30 @@
                   <c:v>0.05894308943089431</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.06575342465753424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06719367588932806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0658682634730539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04878048780487805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.08695652173913043</c:v>
                 </c:pt>
               </c:numCache>
@@ -1159,30 +1297,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0531062124248497</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05417276720351391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04347826086956522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,30 +1459,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06030150753768844</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05732484076433121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02325581395348837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,20 +2157,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="E5" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.03988343762516427</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2010,112 +2180,114 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="E6" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.03649489291959482</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="E7" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E8" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E9" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E10" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -2128,15 +2300,15 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2149,15 +2321,15 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2170,53 +2342,49 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.06796116504854369</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.03988343762516427</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.03649489291959482</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2224,20 +2392,20 @@
         <v>27</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2245,20 +2413,20 @@
         <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02531645569620253</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2266,20 +2434,20 @@
         <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2287,20 +2455,20 @@
         <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2308,7 +2476,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2321,7 +2489,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2329,7 +2497,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2342,7 +2510,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2350,97 +2518,91 @@
         <v>33</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.05627009646302251</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="E22" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.04585037896590792</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.05894308943089431</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E23" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.04090036422343081</v>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E24" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.02126506251561995</v>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E25" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2453,15 +2615,15 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2474,15 +2636,15 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2495,15 +2657,15 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2516,15 +2678,15 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2537,15 +2699,15 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2558,15 +2720,15 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2579,12 +2741,12 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2600,38 +2762,36 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.06575342465753424</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.04467134548147673</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2644,409 +2804,401 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.05315947843530592</v>
       </c>
       <c r="E36" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+      <c r="F36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.065538317546531</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.05348133198789102</v>
       </c>
       <c r="E37" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.06569285697855883</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="E38" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="E39" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="E40" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="E41" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E42" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E43" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E44" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.06719367588932806</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.03947508980046734</v>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0658682634730539</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.0336893312870472</v>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.03571394500003389</v>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.08235294117647059</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.03774472832613204</v>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.09230769230769231</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.04408461062589322</v>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.04878048780487805</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="E50" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
+      <c r="F50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-0.0534021818714864</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="E51" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G51" s="1">
-        <v>-0.001319021311693634</v>
+        <v>-0.02946960529687732</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.05315947843530592</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E52" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.065538317546531</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.05348133198789102</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E53" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.06569285697855884</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3059,15 +3211,15 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3080,15 +3232,15 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3101,15 +3253,15 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3122,322 +3274,338 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.04823747680890538</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.05232558139534884</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.04901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.04411764705882353</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.05627009646302251</v>
       </c>
       <c r="E65" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
+      <c r="F65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.04585037896590791</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0267379679144385</v>
+        <v>0.05894308943089431</v>
       </c>
       <c r="E66" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>14</v>
+      <c r="F66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.0409003642234308</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.02112676056338028</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="E67" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
+      <c r="F67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.04467134548147673</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="E68" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
+      <c r="F68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.03947508980046734</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="E69" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>14</v>
+      <c r="F69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.03368933128704721</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E70" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
+      <c r="F70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.03571394500003389</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E71" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
+      <c r="F71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.03774472832613204</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.02150537634408602</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E72" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
+      <c r="F72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.04408461062589322</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3445,20 +3613,20 @@
         <v>96</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E73" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3466,49 +3634,53 @@
         <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E74" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>14</v>
+      <c r="F74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-0.001319021311693633</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E75" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
+      <c r="F75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.02126506251561995</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3521,15 +3693,15 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3542,15 +3714,15 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3563,15 +3735,15 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3584,59 +3756,57 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.0531062124248497</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.05417276720351391</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="1">
-        <v>-0.02936825566912953</v>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3649,15 +3819,15 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3670,15 +3840,15 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3691,78 +3861,78 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3775,15 +3945,15 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3796,15 +3966,15 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3817,15 +3987,15 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3838,15 +4008,15 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3859,30 +4029,28 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.06030150753768844</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="1">
-        <v>-0.05340218187148639</v>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3890,64 +4058,64 @@
         <v>119</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.05732484076433121</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.02946960529687732</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="E95" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.05417276720351391</v>
       </c>
       <c r="E96" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
+      <c r="F96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-0.02936825566912953</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3955,20 +4123,20 @@
         <v>123</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E97" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3976,20 +4144,20 @@
         <v>124</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E98" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3997,20 +4165,20 @@
         <v>125</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E99" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4018,20 +4186,20 @@
         <v>126</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4039,20 +4207,20 @@
         <v>127</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
         <v>0.0531062124248497</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4060,7 +4228,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4073,7 +4241,7 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4081,7 +4249,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4094,7 +4262,7 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4102,7 +4270,7 @@
         <v>130</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4115,7 +4283,7 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4123,7 +4291,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4136,7 +4304,7 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4144,7 +4312,7 @@
         <v>132</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4157,7 +4325,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4165,7 +4333,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4178,7 +4346,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +4356,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4329,6 +4497,264 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.06796116504854369</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01485495262369399</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.007499848181210911</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.0150109743296116</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.02778975672864717</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.03387544319408047</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.025</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.0281062124248497</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4337,7 +4763,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4394,7 +4820,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4437,7 +4863,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4475,6 +4901,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02150537634408602</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.03160083608076367</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.0394075822878634</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
@@ -4486,7 +4998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4543,7 +5055,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4586,7 +5098,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4624,6 +5136,307 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.04823747680890538</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.004868735615944315</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.05232558139534884</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.000780631029500857</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04901960784313725</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.004086604581712443</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.008988565366026165</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.009627951555284481</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.01606917538781266</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.02453478385342113</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -4635,7 +5448,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4692,7 +5505,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4735,7 +5548,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4778,22 +5591,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.08695652173913043</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="E6" s="3">
         <v>0.0531062124248497</v>
       </c>
       <c r="F6" s="1">
-        <v>0.03385030931428074</v>
+        <v>0.01264721223268454</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4816,6 +5629,350 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06719367588932806</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01408746346447837</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0658682634730539</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0127620510482042</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01832235900372173</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.08235294117647059</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02924672875162089</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.03920147988284262</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.004325724619971646</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.01140991660740837</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.03385030931428074</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4827,7 +5984,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4884,7 +6041,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4927,7 +6084,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -4965,6 +6122,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.0004746334774812788</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.01464467396331123</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.009627951555284481</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4976,7 +6262,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,7 +6319,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5076,7 +6362,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5114,6 +6400,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.02643954575818303</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.02985039847136133</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__14.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__14.xlsx
@@ -52,25 +52,25 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
@@ -121,6 +121,174 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
@@ -163,64 +331,58 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
@@ -260,168 +422,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.05175085757696688</v>
+        <v>0.05175085757696687</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2518,181 +2518,197 @@
         <v>33</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0267379679144385</v>
+        <v>0.05627009646302251</v>
       </c>
       <c r="E22" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.04585037896590791</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02112676056338028</v>
+        <v>0.05894308943089431</v>
       </c>
       <c r="E23" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0409003642234308</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02150537634408602</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="E24" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>18</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.04467134548147672</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="E25" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>18</v>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.03947508980046734</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="E26" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>18</v>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.0336893312870472</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E27" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>18</v>
+      <c r="F27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.03571394500003389</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E28" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>18</v>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.03774472832613204</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E29" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
+      <c r="F29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.04408461062589322</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1">
         <v>41</v>
-      </c>
-      <c r="B30" s="1">
-        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E30" s="1">
         <v>0.0531062124248497</v>
@@ -2704,52 +2720,56 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E31" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.001319021311693633</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E32" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>18</v>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.02126506251561995</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2767,10 +2787,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2788,10 +2808,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2809,62 +2829,58 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.05315947843530592</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.065538317546531</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.05348133198789102</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.06569285697855883</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.04823747680890538</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.0531062124248497</v>
@@ -2876,16 +2892,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.05232558139534884</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.0531062124248497</v>
@@ -2897,16 +2913,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.04901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.0531062124248497</v>
@@ -2918,16 +2934,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.04411764705882353</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0.0531062124248497</v>
@@ -2939,16 +2955,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0.0531062124248497</v>
@@ -2960,16 +2976,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0.0531062124248497</v>
@@ -2981,16 +2997,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0.0531062124248497</v>
@@ -3002,10 +3018,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -3023,10 +3039,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -3044,10 +3060,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3065,7 +3081,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3086,7 +3102,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3107,104 +3123,104 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.06030150753768844</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="1">
-        <v>-0.0534021818714864</v>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.05732484076433121</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-0.02946960529687732</v>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.05315947843530592</v>
       </c>
       <c r="E52" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>18</v>
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.065538317546531</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02325581395348837</v>
+        <v>0.05348133198789102</v>
       </c>
       <c r="E53" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>18</v>
+      <c r="F53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.06569285697855884</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="E54" s="1">
         <v>0.0531062124248497</v>
@@ -3216,16 +3232,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="E55" s="1">
         <v>0.0531062124248497</v>
@@ -3237,16 +3253,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="E56" s="1">
         <v>0.0531062124248497</v>
@@ -3258,16 +3274,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="E57" s="1">
         <v>0.0531062124248497</v>
@@ -3279,16 +3295,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E58" s="1">
         <v>0.0531062124248497</v>
@@ -3300,16 +3316,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E59" s="1">
         <v>0.0531062124248497</v>
@@ -3321,16 +3337,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E60" s="1">
         <v>0.0531062124248497</v>
@@ -3342,10 +3358,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3363,10 +3379,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3384,10 +3400,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3405,7 +3421,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3426,186 +3442,170 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.05627009646302251</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.04585037896590791</v>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.05894308943089431</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="E66" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.0409003642234308</v>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.06575342465753424</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E67" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.04467134548147673</v>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.06719367588932806</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E68" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.03947508980046734</v>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0658682634730539</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E69" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.03368933128704721</v>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.03571394500003389</v>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.08235294117647059</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.03774472832613204</v>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.09230769230769231</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.04408461062589322</v>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3613,13 +3613,13 @@
         <v>96</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.04878048780487805</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <v>0.0531062124248497</v>
@@ -3634,53 +3634,49 @@
         <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-0.001319021311693633</v>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.02126506251561995</v>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3698,10 +3694,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3719,10 +3715,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3740,10 +3736,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3761,16 +3757,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="E80" s="1">
         <v>0.0531062124248497</v>
@@ -3782,37 +3778,39 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.05417276720351391</v>
       </c>
       <c r="E81" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>18</v>
+      <c r="F81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-0.02936825566912952</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E82" s="1">
         <v>0.0531062124248497</v>
@@ -3824,16 +3822,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E83" s="1">
         <v>0.0531062124248497</v>
@@ -3845,16 +3843,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E84" s="1">
         <v>0.0531062124248497</v>
@@ -3866,10 +3864,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3887,10 +3885,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3908,10 +3906,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3929,10 +3927,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3950,10 +3948,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3971,10 +3969,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3992,7 +3990,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4013,7 +4011,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4034,23 +4032,25 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="E93" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>18</v>
+      <c r="F93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="1">
+        <v>-0.05340218187148639</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4058,34 +4058,36 @@
         <v>119</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="E94" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>18</v>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-0.02946960529687733</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E95" s="1">
         <v>0.0531062124248497</v>
@@ -4097,25 +4099,23 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.05417276720351391</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E96" s="1">
         <v>0.0531062124248497</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" s="1">
-        <v>-0.02936825566912953</v>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4123,13 +4123,13 @@
         <v>123</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0.0531062124248497</v>
@@ -4144,13 +4144,13 @@
         <v>124</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
         <v>0.0531062124248497</v>
@@ -4165,13 +4165,13 @@
         <v>125</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0.0531062124248497</v>
@@ -4186,7 +4186,7 @@
         <v>126</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4207,7 +4207,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4228,7 +4228,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4249,7 +4249,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
